--- a/DATA/bmi_mundial_wikipedia.xlsx
+++ b/DATA/bmi_mundial_wikipedia.xlsx
@@ -154,7 +154,7 @@
     <t xml:space="preserve">Marshall Islands</t>
   </si>
   <si>
-    <t xml:space="preserve">Egypt</t>
+    <t xml:space="preserve">Egypt, Arab Rep.</t>
   </si>
   <si>
     <t xml:space="preserve">30.7</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">Belize</t>
   </si>
   <si>
-    <t xml:space="preserve">United States of America</t>
+    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">28.8</t>
@@ -463,7 +463,7 @@
     <t xml:space="preserve">Peru</t>
   </si>
   <si>
-    <t xml:space="preserve">Iran</t>
+    <t xml:space="preserve">Iran, Islamic Rep.</t>
   </si>
   <si>
     <t xml:space="preserve">25.3</t>
@@ -739,7 +739,7 @@
     <t xml:space="preserve">22.8</t>
   </si>
   <si>
-    <t xml:space="preserve">Republic of the Congo</t>
+    <t xml:space="preserve">Congo, Dem. Rep.</t>
   </si>
   <si>
     <t xml:space="preserve">22.5</t>
@@ -1047,8 +1047,8 @@
   </sheetPr>
   <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A199" activeCellId="0" sqref="A199"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B148" activeCellId="0" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1390,7 +1390,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="2"/>
@@ -1486,7 +1486,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="2"/>
@@ -3046,7 +3046,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B84" s="2"/>
@@ -4726,7 +4726,7 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B154" s="2"/>
